--- a/POMframework/data/TC001_Login.xlsx
+++ b/POMframework/data/TC001_Login.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chowd\eclipse-workspace\POMframework\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chowd\git\repository\POMframework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B43DBB90-43EB-43C9-91BF-8D800CD302B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46A10A3-3CFC-4F60-A170-6A47A4D04D6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
